--- a/DatabaseUpdate/ExcelFiles/CommissionTypeGroups.xlsx
+++ b/DatabaseUpdate/ExcelFiles/CommissionTypeGroups.xlsx
@@ -37,13 +37,13 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Отбор пациентов</x:t>
+    <x:t>Отбор пациентов на ВМП</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Консиллиум</x:t>
+    <x:t>Консилиум</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -432,7 +432,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>2958100</x:v>
+        <x:v>2958465</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -446,7 +446,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>2958100</x:v>
+        <x:v>2958465</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -460,7 +460,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>2958100</x:v>
+        <x:v>2958465</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
